--- a/medicine/Enfance/Jean-François_Vilar/Jean-François_Vilar.xlsx
+++ b/medicine/Enfance/Jean-François_Vilar/Jean-François_Vilar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Vilar</t>
+          <t>Jean-François_Vilar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Patrick Yves Andre Zabel dit Jean-François Vilar né le 14 mars 1947 à Paris et mort dans cette même ville le 16 novembre 2014[1],[2],[3], est un écrivain français. Il est l'auteur de romans policiers où il mêle des thèmes comme la ville secrète, la photographie, l'art et la littérature (notamment le surréalisme), l'histoire et les révolutions (1789, 1917, 1968).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Patrick Yves Andre Zabel dit Jean-François Vilar né le 14 mars 1947 à Paris et mort dans cette même ville le 16 novembre 2014 est un écrivain français. Il est l'auteur de romans policiers où il mêle des thèmes comme la ville secrète, la photographie, l'art et la littérature (notamment le surréalisme), l'histoire et les révolutions (1789, 1917, 1968).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Vilar</t>
+          <t>Jean-François_Vilar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après une enfance parisienne, il fait des études au lycée Buffon à Paris XVème dont sa classe de philosophie avec Maurice Clavel (son oncle par alliance)[réf. nécessaire] puis des études de droit. Il participe à mai 68. Militant trotskiste, il devient en 1972, après son service militaire, responsable national des Comités de défense des appelés (CDA), coordonnés par un appareil clandestin de la Ligue communiste - devenue LCR en septembre 1973. De 1976 à 1981, il est journaliste permanent à l'hebdomadaire Rouge, où il travaille aux côtés de Daniel Bensaïd et réalise de nombreuses photos des diverses activités de la LCR.[réf. nécessaire]
 En 1981, il démissionne de Rouge et de la LCR. Chômeur, il envisage d'écrire un roman noir (il déclare : « je n'ai jamais aimé la littérature policière, ce qui m'intéresse c'est la littérature délinquante »), quand, en août 1981, il voit l'annonce d'un concours dans Télérama. Il écrit C'est toujours les autres qui meurent qui obtient le Grand prix du roman noir Télérama décerné le 1er février 1982, et est publié chez Fayard Noir. Ce roman est la première aventure de son personnage fétiche, Victor Blainville, mi-journaliste, mi-photographe, qui apparaît dans six romans et quelques nouvelles publiés entre 1982 et 1993.
 Jean-François Vilar se dit marqué par trois figures : Léon Trotsky, Dashiell Hammett et Marcel Duchamp. C'est à ce dernier qu'il emprunte la ville natale pour baptiser son personnage principal (Blainville), et l'épitaphe pour titrer son premier roman : C'est toujours les autres qui meurent.
 Fin 1986, il devient président éphémère de l'association 813 : mais en octobre 1987, il démissionne de son poste pour protester contre le fait que le milieu du polar tolère la présence d'A. D. G., auteur engagé à l'extrême-droite, lors du festival de Grenoble.
-Ses deux derniers romans, Les Exagérés et Nous cheminons entourés de fantômes aux fronts troués, sont publiés respectivement en 1989 et 1993 au Seuil, dans la collection Fiction &amp; Cie dirigée par Denis Roche. Selon Claude Mesplède, « c'est avec Nous cheminons entourés de fantômes aux fronts troués que Vilar atteint le sommet de son art. Deux intrigues se télescopent : une vision de l'année 1989 avec Blainville participant à la démocratisation de la Tchécoslovaquie, sous les yeux de démocrates déjà convaincus qu'ils sont les cocus de l'Histoire, et un récit se déroulant en 1939 : la lutte des trotskistes pour survivre à Paris menacés par les forces de police française, les autres mouvements politiques et les tueurs de Staline »[4].
+Ses deux derniers romans, Les Exagérés et Nous cheminons entourés de fantômes aux fronts troués, sont publiés respectivement en 1989 et 1993 au Seuil, dans la collection Fiction &amp; Cie dirigée par Denis Roche. Selon Claude Mesplède, « c'est avec Nous cheminons entourés de fantômes aux fronts troués que Vilar atteint le sommet de son art. Deux intrigues se télescopent : une vision de l'année 1989 avec Blainville participant à la démocratisation de la Tchécoslovaquie, sous les yeux de démocrates déjà convaincus qu'ils sont les cocus de l'Histoire, et un récit se déroulant en 1939 : la lutte des trotskistes pour survivre à Paris menacés par les forces de police française, les autres mouvements politiques et les tueurs de Staline ».
 Il publie encore deux petits livres en 1997, puis entre dans le silence littéraire. Il ne reprend la plume qu'en septembre 2012, pour signer sur Médiapart une tribune à propos de l'affaire Richard Millet.
 Il meurt d'un cancer du poumon en novembre 2014.
 </t>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Vilar</t>
+          <t>Jean-François_Vilar</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,16 +564,55 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-C'est toujours les autres qui meurent, Fayard noir, 01/1982 ; rééditions, J'ai lu no 1979, 1986 ; Actes Sud, coll. « Babel noir poche » no 266, 1997 ; Actes Sud, coll. « Babel noir » no 20, 2008
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>C'est toujours les autres qui meurent, Fayard noir, 01/1982 ; rééditions, J'ai lu no 1979, 1986 ; Actes Sud, coll. « Babel noir poche » no 266, 1997 ; Actes Sud, coll. « Babel noir » no 20, 2008
 Passage des singes, Presses de la renaissance, 12/1983 ; réédition, J'ai lu no 1824, 1985
 État d'urgence, Presses de la renaissance, 01/1985 ; réédition, J'ai lu no 2163, 1987
 Bastille tango, Presses de la renaissance, 12/1986 ; rééditions J'ai lu no 2517, 1988 ; Actes Sud, coll. « Babel noir poche » no 318, 1998 ; Actes Sud, coll. « Babel noir » no , 2013
 Djemila, Calmann-Levy, coll. SOS Racisme, 03/1988 ; réédition, Pocket no 3130, 1989 ; Folio policier no 630, 2011
 Les Exagérés, Seuil, coll. « Fictions &amp; Cie », 02/1989 ; rééd. Seuil, coll. "Points Roman", n° 409, 1990 ; Points Roman noir n° 2014, 09/2008, 03/2021.
-Nous cheminons entourés de fantômes aux fronts troués, Seuil, coll. « Fictions &amp; Cie », mars 1993 ; rééd. Points Roman noir n° 3396, 11/2014, 03/2021.
-Nouvelles
-Paris la nuit, dans Le Piéton de Paris, 1982
+Nous cheminons entourés de fantômes aux fronts troués, Seuil, coll. « Fictions &amp; Cie », mars 1993 ; rééd. Points Roman noir n° 3396, 11/2014, 03/2021.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean-François_Vilar</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Fran%C3%A7ois_Vilar</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Paris la nuit, dans Le Piéton de Paris, 1982
 Cherie's Requiem, dans Contreciel no 2, 1984
 En rade, dans Après la plage no 1, 1985
 La Tache de vin, publiée dans le coffret Café Nocturne, éditions Harpo, 1984 ; reprise La Crème du crime, anthologie de la nouvelle noire et policière française, éditions de L'Atalante, 1995
@@ -570,50 +623,154 @@
 La Grande Ronde du Père Duchesne rue Saint-Antoine, Épigramme, 1989
 Le Réveil du Golem, dans La vie est un roman, Denoël, 1991
 La Fille du calvaire, éditions de la Voute, coll. « Métro-police », janvier 1997
-Les Fous de Chaillot, Baleine, coll. « Tourisme et Polar », 1997
-Récits pour la jeunesse
-Les Hiboux de Paris, Nathan jeunesse, coll. Arc en poche no 128, 01/1989
-La Doublure, Nathan jeunesse, coll. Arc en poche no 632, 05/1990
-Autres ouvrages
-Paris la nuit (photos de Michel Saloff), ACE, coll. Le piéton de Paris, 10/1982
+Les Fous de Chaillot, Baleine, coll. « Tourisme et Polar », 1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean-François_Vilar</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Fran%C3%A7ois_Vilar</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Récits pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les Hiboux de Paris, Nathan jeunesse, coll. Arc en poche no 128, 01/1989
+La Doublure, Nathan jeunesse, coll. Arc en poche no 632, 05/1990</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean-François_Vilar</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Fran%C3%A7ois_Vilar</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres ouvrages</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Paris la nuit (photos de Michel Saloff), ACE, coll. Le piéton de Paris, 10/1982
 La Grande Ronde du Père Duchesne rue Saint-Antoine, Epigramme, 1989
 Sherlock Holmes et les ombres (photos de Christian Louis), Éditions du Collectionneur, 1992
 Le Faucon de Pague, chapitre 1 d'un cadavre exquis écrit avec Thierry Jonquet, Patrick Raynal, Didier Daeninckx, Tonino Benacquista, Daniel Picouly et Jean-Bernard Pouy, publié en feuilleton dans Le Nouvel Économiste, durant l'été 1993 (n° 903 du 16/07/1993 pour l'épisode de Jean-François Vilar).
-Les Fous de Chaillot, Baleine, Tourisme et polar, 08/1997
-Documentaire vidéo
-Jean-François Vilar, 95 % de réel, film de Pierre-André Sauvageot, 1997</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Jean-Fran%C3%A7ois_Vilar</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+Les Fous de Chaillot, Baleine, Tourisme et polar, 08/1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jean-François_Vilar</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jean-Fran%C3%A7ois_Vilar</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Documentaire vidéo</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Jean-François Vilar, 95 % de réel, film de Pierre-André Sauvageot, 1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jean-François_Vilar</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Fran%C3%A7ois_Vilar</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Grand prix du roman noir Télérama 1982[5]
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Grand prix du roman noir Télérama 1982
 Grand prix Hammett du roman noir 1998 pour l'ensemble de son œuvre
-Prix du roman policier francophone de la ville du Mans 1989 pour Les Exagérées[6]</t>
+Prix du roman policier francophone de la ville du Mans 1989 pour Les Exagérées</t>
         </is>
       </c>
     </row>
